--- a/hashes.xlsx
+++ b/hashes.xlsx
@@ -34,7 +34,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>filename</t>
+    <t>file_name</t>
   </si>
   <si>
     <t>md5</t>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="2"/>
